--- a/Photon_Dev/Bill of Materials/BOM.xlsx
+++ b/Photon_Dev/Bill of Materials/BOM.xlsx
@@ -147,9 +147,6 @@
     <t>R34,R35</t>
   </si>
   <si>
-    <t>SW1,SW10</t>
-  </si>
-  <si>
     <t>SS12SDH2</t>
   </si>
   <si>
@@ -213,15 +210,9 @@
     <t xml:space="preserve">Revised: </t>
   </si>
   <si>
-    <t>Monday 12/21/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">          Revision:  </t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -235,9 +226,6 @@
   </si>
   <si>
     <t>USB Micro</t>
-  </si>
-  <si>
-    <t>PCB V1.0</t>
   </si>
   <si>
     <t xml:space="preserve">PCB Assembly </t>
@@ -320,6 +308,18 @@
   </si>
   <si>
     <t>JST-2 (B2B-XH-AM)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Saturday 02/16/16</t>
+  </si>
+  <si>
+    <t>SW10</t>
+  </si>
+  <si>
+    <t>PCB V2.0</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,36 +1260,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
@@ -1307,16 +1307,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1353,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6">
         <v>0.67800000000000005</v>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" s="6">
         <v>5.2400000000000002E-2</v>
@@ -1399,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6">
         <v>2.2800000000000001E-2</v>
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6">
         <v>0.28799999999999998</v>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E18" s="6">
         <v>1.7000000000000001E-2</v>
@@ -1514,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E21" s="6">
         <v>3.5999999999999997E-2</v>
@@ -1534,10 +1534,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E22" s="6">
         <v>1.2E-2</v>
@@ -1639,10 +1639,10 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1656,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E27" s="6">
         <v>0.14099999999999999</v>
@@ -1771,7 +1771,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E32" s="6">
         <v>1.2999999999999999E-2</v>
@@ -1794,7 +1794,7 @@
         <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E33" s="6">
         <v>1.0999999999999999E-2</v>
@@ -1817,7 +1817,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E34" s="6">
         <v>4.3999999999999997E-2</v>
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E35" s="6">
         <v>8.0000000000000002E-3</v>
@@ -1863,7 +1863,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E36" s="6">
         <v>0.01</v>
@@ -1883,10 +1883,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E37" s="6">
         <v>3.0300000000000001E-2</v>
@@ -1909,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6">
         <v>7.9000000000000001E-2</v>
@@ -1932,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E39" s="6">
         <v>7.9000000000000001E-2</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6">
         <v>5.4399999999999997E-2</v>
@@ -1995,20 +1995,20 @@
         <v>30</v>
       </c>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E42" s="6">
         <v>1.41</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>1.41</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2021,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E43" s="6">
         <v>0.44</v>
@@ -2044,10 +2044,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E44" s="6">
         <v>0.49299999999999999</v>
@@ -2067,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E45" s="6">
         <v>0.56000000000000005</v>
@@ -2090,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9">
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E47" s="6">
         <v>0.55700000000000005</v>
@@ -2134,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E48" s="6">
         <v>5.74</v>
@@ -2157,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E49" s="10">
         <v>12</v>
@@ -2170,10 +2170,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2184,10 +2184,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E50" s="6">
         <v>1.347</v>
@@ -2207,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E51" s="6">
         <v>2.77</v>
@@ -2230,10 +2230,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6">
@@ -2245,11 +2245,11 @@
     </row>
     <row r="57" spans="1:8">
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C57" s="4">
         <f>SUM(F13:F51)</f>
-        <v>36.906700000000008</v>
+        <v>35.496700000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Photon_Dev/Bill of Materials/BOM.xlsx
+++ b/Photon_Dev/Bill of Materials/BOM.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="PROTON_DEV" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t>Item</t>
   </si>
@@ -27,9 +28,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
@@ -57,51 +55,27 @@
     <t>C7</t>
   </si>
   <si>
-    <t>10nF (16V)</t>
-  </si>
-  <si>
-    <t>C8,C9</t>
-  </si>
-  <si>
-    <t>.1uF</t>
-  </si>
-  <si>
     <t>C10,C12,C14,C15,C17</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>RED</t>
-  </si>
-  <si>
     <t>D3,D4</t>
   </si>
   <si>
-    <t>MBRA140</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
-    <t>1N4148</t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
-    <t>CLMVB-FKA-CFHEHLCBB7A363</t>
-  </si>
-  <si>
     <t>JP1</t>
   </si>
   <si>
     <t>J9</t>
   </si>
   <si>
-    <t>HEADER 3</t>
-  </si>
-  <si>
     <t>LS1</t>
   </si>
   <si>
@@ -111,15 +85,9 @@
     <t>L1</t>
   </si>
   <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>2SD1484KT146R</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -165,9 +133,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>MCP73831</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -177,9 +142,6 @@
     <t>U5</t>
   </si>
   <si>
-    <t>RT8008-33-GB</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -204,9 +166,6 @@
     <t>AD5220</t>
   </si>
   <si>
-    <t>C11,C13,C16,C18,C19,C23, C24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revised: </t>
   </si>
   <si>
@@ -237,89 +196,137 @@
     <t>1.0UF-16V-10%(0603)</t>
   </si>
   <si>
-    <t xml:space="preserve">22uF, Ceramic Capacitor, Low ESR (&lt;50 mOhm), X5R
+    <t>0.1UF-25V(+80/-20%)(0603)</t>
+  </si>
+  <si>
+    <t>330OHM,1/10W,1%(0603)</t>
+  </si>
+  <si>
+    <t>2.0KOHM,1/10W,5%(0603)</t>
+  </si>
+  <si>
+    <t>1KOHM,1/4W, 1%(0603)</t>
+  </si>
+  <si>
+    <t>100k, 1/10W, 5% (603)</t>
+  </si>
+  <si>
+    <t>4.7KOHM, 1/10W, 1%(0603)</t>
+  </si>
+  <si>
+    <t>150kOHM,1/4W, 1%(0603)</t>
+  </si>
+  <si>
+    <t>180OHM,1/4W, 1%(0603)</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Cree-Inc/CLMVB-FKA-CFHEHLCBB7a363/?qs=xEJ61ozf1a03pP6vmpANQg%3D%3D</t>
+  </si>
+  <si>
+    <t>Digikey Cart</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/short/t0vcw8</t>
+  </si>
+  <si>
+    <t>Alternate Distributor</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>*All of the prices in the attached BOM are for 1 board.</t>
+  </si>
+  <si>
+    <t>**Items are from Digikey and included in shopping cart unless noted.</t>
+  </si>
+  <si>
+    <t>Particle</t>
+  </si>
+  <si>
+    <t>https://store.particle.io/?product=p0-particle-module-x10-&amp;utm_source=Proto&amp;utm_medium=Button&amp;utm_content=P0&amp;utm_campaign=Buy</t>
+  </si>
+  <si>
+    <t>SW10</t>
+  </si>
+  <si>
+    <t>PCB V2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uF, Ceramic Capacitor, Low ESR (&lt;50 mOhm), X5R, 6.3V (0603)
 </t>
   </si>
   <si>
-    <t>0.1UF-25V(+80/-20%)(0603)</t>
-  </si>
-  <si>
-    <t>330OHM,1/10W,1%(0603)</t>
-  </si>
-  <si>
-    <t>2.0KOHM,1/10W,5%(0603)</t>
-  </si>
-  <si>
-    <t>1KOHM,1/4W, 1%(0603)</t>
-  </si>
-  <si>
-    <t>100k, 1/10W, 5% (603)</t>
-  </si>
-  <si>
-    <t>4.7KOHM, 1/10W, 1%(0603)</t>
-  </si>
-  <si>
-    <t>150kOHM,1/4W, 1%(0603)</t>
-  </si>
-  <si>
-    <t>180OHM,1/4W, 1%(0603)</t>
-  </si>
-  <si>
-    <t>49.5KOHM,1/4W, 1%(0603)</t>
-  </si>
-  <si>
-    <t>10kOHM,1/4W, 1%(0603)</t>
-  </si>
-  <si>
-    <t>MOUSER</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Cree-Inc/CLMVB-FKA-CFHEHLCBB7a363/?qs=xEJ61ozf1a03pP6vmpANQg%3D%3D</t>
-  </si>
-  <si>
-    <t>0.1uF, 6.3V, 10%, (603)</t>
-  </si>
-  <si>
-    <t>10uF, 6.3V, 10%, (603)</t>
-  </si>
-  <si>
-    <t>Digikey Cart</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/short/t0vcw8</t>
-  </si>
-  <si>
-    <t>Alternate Distributor</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>*All of the prices in the attached BOM are for 1 board.</t>
-  </si>
-  <si>
-    <t>**Items are from Digikey and included in shopping cart unless noted.</t>
-  </si>
-  <si>
-    <t>Particle</t>
-  </si>
-  <si>
-    <t>https://store.particle.io/?product=p0-particle-module-x10-&amp;utm_source=Proto&amp;utm_medium=Button&amp;utm_content=P0&amp;utm_campaign=Buy</t>
-  </si>
-  <si>
-    <t>JST-2 (B2B-XH-AM)</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Saturday 02/16/16</t>
-  </si>
-  <si>
-    <t>SW10</t>
-  </si>
-  <si>
-    <t>PCB V2.0</t>
+    <t>RED(0603)</t>
+  </si>
+  <si>
+    <t>10uF, 6.3V, 10%, (0603)</t>
+  </si>
+  <si>
+    <t>1N4148, 100V, 150mA,(SOD-123)</t>
+  </si>
+  <si>
+    <t>CLMVB-FKA-CFHEHLCBB7A363, 20mA(PLCC-4)</t>
+  </si>
+  <si>
+    <t>MBRA140, 40V,1A,(DO-214AC)</t>
+  </si>
+  <si>
+    <t>HEADER 3POS, R/A PIN, 2.54MM TH</t>
+  </si>
+  <si>
+    <t>JST-2, R/A PIN, 2MM TH</t>
+  </si>
+  <si>
+    <t>2.2uH, 1.5A, 72MOHM</t>
+  </si>
+  <si>
+    <t>2SD1484KT146R (SOT346)</t>
+  </si>
+  <si>
+    <t>22 Ohm, 1/4W,5% (0603)</t>
+  </si>
+  <si>
+    <t>MCP73831 (SOT23-5)</t>
+  </si>
+  <si>
+    <t>RT8008-33-GB (SOT23-5)</t>
+  </si>
+  <si>
+    <t>47KOHM,1/4W, 1%(0603)</t>
+  </si>
+  <si>
+    <t>10KOHM,1/4W, 1%(0603)</t>
+  </si>
+  <si>
+    <t>Reference Designator</t>
+  </si>
+  <si>
+    <t>10nF (10000pF)-16V (0603)</t>
+  </si>
+  <si>
+    <t>C8,C9, C11,C13,C16,C18,C19,C23, C24</t>
+  </si>
+  <si>
+    <t>0.1uF, 25V, 10%, (0603)</t>
+  </si>
+  <si>
+    <t>Wednesday 2/17/16</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Added Packaging information for components. Consolidated duplicate rows of same part</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Sleep Track V2.0</t>
   </si>
 </sst>
 </file>
@@ -480,7 +487,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,18 +669,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -831,6 +832,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -881,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -900,13 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="34" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,6 +1028,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1241,15 +1390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
@@ -1259,161 +1411,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A12" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="D12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.103</v>
+      </c>
+      <c r="F12" s="10">
+        <f>E12*B12</f>
+        <v>1.103</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="12">
-        <v>1.103</v>
-      </c>
-      <c r="F13" s="12">
-        <f>E13*B13</f>
-        <v>1.103</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F50" si="0">E13*B13</f>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
         <v>2</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6">
-        <v>0.67800000000000005</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F52" si="0">E14*B14</f>
-        <v>0.67800000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.1048</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
         <v>3</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6">
-        <v>5.2400000000000002E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>0.1048</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="45">
       <c r="A16" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>71</v>
+      <c r="D16" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="6">
-        <v>2.2800000000000001E-2</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>6.8400000000000002E-2</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="45">
+    <row r="17" spans="1:8">
       <c r="A17" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -1421,22 +1609,22 @@
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>72</v>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="6">
-        <v>0.28799999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>0.28799999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -1445,815 +1633,1336 @@
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E18" s="6">
-        <v>1.7000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6">
-        <v>0.02</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="E20" s="6">
-        <v>1.24E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>2.4799999999999999E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E21" s="6">
-        <v>3.5999999999999997E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6">
-        <v>1.2E-2</v>
+        <v>0.371</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
-        <v>8.4000000000000005E-2</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E23" s="6">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="60">
       <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5">
+        <v>22</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5">
+        <v>23</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5">
+        <v>24</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5">
+        <v>26</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="0"/>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5">
+        <v>27</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="0"/>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5">
+        <v>28</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="6">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5">
+        <v>29</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5">
+        <v>30</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="0"/>
+        <v>1.41</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5">
+        <v>34</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" s="15" customFormat="1">
+      <c r="A44" s="13">
+        <v>35</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>36</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="0"/>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5">
+        <v>37</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="6">
+        <v>5.74</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="0"/>
+        <v>5.74</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" ht="60">
+      <c r="A47" s="5">
+        <v>38</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="8">
         <v>12</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5">
+        <v>39</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1.347</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="0"/>
+        <v>1.347</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5">
+        <v>40</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2.77</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="0"/>
+        <v>2.77</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5">
+        <v>41</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="4">
+        <f>SUM(F12:F49)</f>
+        <v>35.495900000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="44" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="18">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="18">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18">
+        <v>24</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.371</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="18">
+        <v>25</v>
       </c>
       <c r="B25" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="60">
-      <c r="A26" s="5">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="18">
+        <v>26</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="5">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18">
+        <v>27</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="5">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18">
+        <v>28</v>
       </c>
       <c r="B28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="18">
+        <v>29</v>
       </c>
       <c r="B29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="6">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="5">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="18">
+        <v>30</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="18">
+        <v>31</v>
       </c>
       <c r="B31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="6">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5">
-        <v>20</v>
+      <c r="D31" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="18">
+        <v>32</v>
       </c>
       <c r="B32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="5">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="18">
+        <v>34</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="5">
-        <v>22</v>
-      </c>
-      <c r="B34" s="5">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="21">
         <v>35</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="6">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5">
-        <v>23</v>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="18">
+        <v>36</v>
       </c>
       <c r="B35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="18">
+        <v>37</v>
       </c>
       <c r="B36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="5">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="18">
+        <v>38</v>
       </c>
       <c r="B37" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="6">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="5">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="18">
+        <v>39</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="6">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="0"/>
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="5">
-        <v>27</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="6">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="0"/>
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5">
-        <v>28</v>
-      </c>
-      <c r="B40" s="5">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A39" s="23">
         <v>40</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="6">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="5">
-        <v>29</v>
-      </c>
-      <c r="B41" s="5">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="5">
-        <v>22</v>
-      </c>
-      <c r="E41" s="6">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5">
-        <v>30</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1.41</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="0"/>
-        <v>1.41</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5">
-        <v>31</v>
-      </c>
-      <c r="B43" s="5">
-        <v>2</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0.44</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="0"/>
-        <v>0.88</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5">
-        <v>32</v>
-      </c>
-      <c r="B44" s="5">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="B39" s="24">
+        <v>1</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="6">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="F44" s="6">
-        <f t="shared" si="0"/>
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5">
-        <v>34</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D39" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F45" s="6">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="8">
-        <v>35</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5">
-        <v>36</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="F47" s="6">
-        <f t="shared" si="0"/>
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="5">
-        <v>37</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="6">
-        <v>5.74</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" si="0"/>
-        <v>5.74</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="60">
-      <c r="A49" s="5">
-        <v>38</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="10">
-        <v>12</v>
-      </c>
-      <c r="F49" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="5">
-        <v>39</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1.347</v>
-      </c>
-      <c r="F50" s="6">
-        <f t="shared" si="0"/>
-        <v>1.347</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="5">
-        <v>40</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="6">
-        <v>2.77</v>
-      </c>
-      <c r="F51" s="6">
-        <f t="shared" si="0"/>
-        <v>2.77</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="5">
-        <v>41</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="4">
-        <f>SUM(F13:F51)</f>
-        <v>35.496700000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Photon_Dev/Bill of Materials/BOM.xlsx
+++ b/Photon_Dev/Bill of Materials/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROTON_DEV" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -833,107 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -998,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1035,37 +934,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1395,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1459,7 +1328,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2404,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2417,7 +2286,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2431,7 +2300,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9">
@@ -2440,12 +2309,12 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5">
@@ -2454,12 +2323,12 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5">
@@ -2468,12 +2337,12 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -2482,12 +2351,12 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
-      <c r="A6" s="18">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -2496,12 +2365,12 @@
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="18">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5">
@@ -2510,12 +2379,12 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="18">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5">
@@ -2524,12 +2393,12 @@
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="18">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
       <c r="B9" s="5">
@@ -2538,12 +2407,12 @@
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="18">
+      <c r="A10" s="5">
         <v>10</v>
       </c>
       <c r="B10" s="5">
@@ -2552,12 +2421,12 @@
       <c r="C10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="18">
+      <c r="A11" s="5">
         <v>11</v>
       </c>
       <c r="B11" s="5">
@@ -2566,12 +2435,12 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="18">
+      <c r="A12" s="5">
         <v>12</v>
       </c>
       <c r="B12" s="5">
@@ -2580,12 +2449,12 @@
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="18">
+      <c r="A13" s="5">
         <v>13</v>
       </c>
       <c r="B13" s="5">
@@ -2594,12 +2463,12 @@
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="18">
+      <c r="A14" s="5">
         <v>14</v>
       </c>
       <c r="B14" s="5">
@@ -2608,12 +2477,12 @@
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="18">
+      <c r="A15" s="5">
         <v>15</v>
       </c>
       <c r="B15" s="5">
@@ -2622,12 +2491,12 @@
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="18">
+      <c r="A16" s="5">
         <v>16</v>
       </c>
       <c r="B16" s="5">
@@ -2636,12 +2505,12 @@
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="18">
+      <c r="A17" s="5">
         <v>17</v>
       </c>
       <c r="B17" s="5">
@@ -2650,12 +2519,12 @@
       <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18">
+      <c r="A18" s="5">
         <v>18</v>
       </c>
       <c r="B18" s="5">
@@ -2664,12 +2533,12 @@
       <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18">
+      <c r="A19" s="5">
         <v>19</v>
       </c>
       <c r="B19" s="5">
@@ -2678,12 +2547,12 @@
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18">
+      <c r="A20" s="5">
         <v>20</v>
       </c>
       <c r="B20" s="5">
@@ -2692,12 +2561,12 @@
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18">
+      <c r="A21" s="5">
         <v>21</v>
       </c>
       <c r="B21" s="5">
@@ -2706,12 +2575,12 @@
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18">
+      <c r="A22" s="5">
         <v>22</v>
       </c>
       <c r="B22" s="5">
@@ -2720,12 +2589,12 @@
       <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18">
+      <c r="A23" s="5">
         <v>23</v>
       </c>
       <c r="B23" s="5">
@@ -2734,12 +2603,12 @@
       <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18">
+      <c r="A24" s="5">
         <v>24</v>
       </c>
       <c r="B24" s="5">
@@ -2748,12 +2617,12 @@
       <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18">
+      <c r="A25" s="5">
         <v>25</v>
       </c>
       <c r="B25" s="5">
@@ -2762,12 +2631,12 @@
       <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18">
+      <c r="A26" s="5">
         <v>26</v>
       </c>
       <c r="B26" s="5">
@@ -2776,12 +2645,12 @@
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18">
+      <c r="A27" s="5">
         <v>27</v>
       </c>
       <c r="B27" s="5">
@@ -2790,12 +2659,12 @@
       <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18">
+      <c r="A28" s="5">
         <v>28</v>
       </c>
       <c r="B28" s="5">
@@ -2804,12 +2673,12 @@
       <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18">
+      <c r="A29" s="5">
         <v>29</v>
       </c>
       <c r="B29" s="5">
@@ -2818,12 +2687,12 @@
       <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18">
+      <c r="A30" s="5">
         <v>30</v>
       </c>
       <c r="B30" s="5">
@@ -2832,12 +2701,12 @@
       <c r="C30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18">
+      <c r="A31" s="5">
         <v>31</v>
       </c>
       <c r="B31" s="5">
@@ -2846,12 +2715,12 @@
       <c r="C31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18">
+      <c r="A32" s="5">
         <v>32</v>
       </c>
       <c r="B32" s="5">
@@ -2860,12 +2729,12 @@
       <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18">
+      <c r="A33" s="5">
         <v>34</v>
       </c>
       <c r="B33" s="5">
@@ -2874,12 +2743,12 @@
       <c r="C33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="21">
+      <c r="A34" s="13">
         <v>35</v>
       </c>
       <c r="B34" s="13">
@@ -2888,12 +2757,12 @@
       <c r="C34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18">
+      <c r="A35" s="5">
         <v>36</v>
       </c>
       <c r="B35" s="5">
@@ -2902,12 +2771,12 @@
       <c r="C35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18">
+      <c r="A36" s="5">
         <v>37</v>
       </c>
       <c r="B36" s="5">
@@ -2916,12 +2785,12 @@
       <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="18">
+      <c r="A37" s="5">
         <v>38</v>
       </c>
       <c r="B37" s="5">
@@ -2930,12 +2799,12 @@
       <c r="C37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18">
+      <c r="A38" s="5">
         <v>39</v>
       </c>
       <c r="B38" s="5">
@@ -2944,21 +2813,21 @@
       <c r="C38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A39" s="23">
+    <row r="39" spans="1:4">
+      <c r="A39" s="5">
         <v>40</v>
       </c>
-      <c r="B39" s="24">
-        <v>1</v>
-      </c>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="5" t="s">
         <v>47</v>
       </c>
     </row>
